--- a/regionseng/10/employment and unemployment/employment and unemployment.xlsx
+++ b/regionseng/10/employment and unemployment/employment and unemployment.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -104,10 +104,6 @@
     </r>
   </si>
   <si>
-    <t>*The data for 2010-2019 are recalculated according to the International Labour Organization (ILO) standards adopted at the 19 and 20th International Conference of Labour Statisticians;
-The data for 2003-2009 are in line with the ILO's standards  adopted at the 13th International Conference of Labour Statisticians.</t>
-  </si>
-  <si>
     <t>Labour force</t>
   </si>
   <si>
@@ -125,6 +121,10 @@
       <t>percentage</t>
     </r>
   </si>
+  <si>
+    <t>*The data for 2010-2019 are recalculated according to the International Labour Organization (ILO) standards adopted at the 19th and 20th International Conferences of Labour Statisticians;
+The data for 2003-2009 are in line with the ILO's standards  adopted at the 13th International Conference of Labour Statisticians.</t>
+  </si>
 </sst>
 </file>
 
@@ -133,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +300,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -372,7 +379,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -465,14 +472,52 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -798,15 +843,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="4" customWidth="1"/>
     <col min="2" max="16" width="8.7109375" style="4" customWidth="1"/>
-    <col min="17" max="20" width="8.7109375" customWidth="1"/>
+    <col min="17" max="21" width="8.7109375" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -853,56 +901,56 @@
       <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
       <c r="V3"/>
       <c r="W3"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
       <c r="V4"/>
       <c r="W4"/>
     </row>
@@ -911,7 +959,9 @@
       <c r="B5" s="3"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="8"/>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="10"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50" t="s">
         <v>9</v>
       </c>
     </row>
@@ -974,6 +1024,12 @@
       <c r="T6" s="15">
         <v>2021</v>
       </c>
+      <c r="U6" s="15">
+        <v>2022</v>
+      </c>
+      <c r="V6" s="15">
+        <v>2023</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1">
       <c r="A7" s="30" t="s">
@@ -1036,10 +1092,16 @@
       <c r="T7" s="16">
         <v>920.07423318525366</v>
       </c>
+      <c r="U7" s="38">
+        <v>916.50927054050476</v>
+      </c>
+      <c r="V7" s="51">
+        <v>949.77446549085403</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1">
       <c r="A8" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="18">
         <v>463.35545646236358</v>
@@ -1097,6 +1159,12 @@
       </c>
       <c r="T8" s="18">
         <v>498.64942922510306</v>
+      </c>
+      <c r="U8" s="39">
+        <v>490.2982600546805</v>
+      </c>
+      <c r="V8" s="52">
+        <v>521.46476357384233</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1">
@@ -1160,6 +1228,12 @@
       <c r="T9" s="18">
         <v>379.88545923069711</v>
       </c>
+      <c r="U9" s="39">
+        <v>394.65106599416362</v>
+      </c>
+      <c r="V9" s="52">
+        <v>429.96982884036504</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1">
       <c r="A10" s="33" t="s">
@@ -1222,6 +1296,12 @@
       <c r="T10" s="18">
         <v>327.39919893328846</v>
       </c>
+      <c r="U10" s="39">
+        <v>332.91229681239304</v>
+      </c>
+      <c r="V10" s="52">
+        <v>355.53433436689176</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1">
       <c r="A11" s="33" t="s">
@@ -1284,6 +1364,12 @@
       <c r="T11" s="18">
         <v>52.396223442651788</v>
       </c>
+      <c r="U11" s="39">
+        <v>61.738769181769335</v>
+      </c>
+      <c r="V11" s="52">
+        <v>74.435494473473071</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1">
       <c r="A12" s="33" t="s">
@@ -1346,6 +1432,12 @@
       <c r="T12" s="18">
         <v>9.0036854756790005E-2</v>
       </c>
+      <c r="U12" s="39">
+        <v>0</v>
+      </c>
+      <c r="V12" s="52">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1">
       <c r="A13" s="32" t="s">
@@ -1408,6 +1500,12 @@
       <c r="T13" s="18">
         <v>118.763969994406</v>
       </c>
+      <c r="U13" s="39">
+        <v>95.647194060515872</v>
+      </c>
+      <c r="V13" s="52">
+        <v>91.494934733476853</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1">
       <c r="A14" s="34" t="s">
@@ -1470,6 +1568,12 @@
       <c r="T14" s="18">
         <v>421.42480396015054</v>
       </c>
+      <c r="U14" s="39">
+        <v>426.21101048582466</v>
+      </c>
+      <c r="V14" s="52">
+        <v>428.30970191701385</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1">
       <c r="A15" s="35" t="s">
@@ -1532,10 +1636,16 @@
       <c r="T15" s="21">
         <v>23.817127431382843</v>
       </c>
+      <c r="U15" s="40">
+        <v>19.507961143865536</v>
+      </c>
+      <c r="V15" s="53">
+        <v>17.545755940711931</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1">
       <c r="A16" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="21">
         <v>55.413577767068475</v>
@@ -1594,8 +1704,14 @@
       <c r="T16" s="21">
         <v>54.196651883055381</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="U16" s="40">
+        <v>53.496268484609068</v>
+      </c>
+      <c r="V16" s="53">
+        <v>54.904062229588746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="37" t="s">
         <v>14</v>
       </c>
@@ -1656,60 +1772,73 @@
       <c r="T17" s="24">
         <v>41.288566240525135</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1">
+      <c r="U17" s="41">
+        <v>43.060237215213434</v>
+      </c>
+      <c r="V17" s="54">
+        <v>45.270729469248458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:20" ht="26.25" customHeight="1">
-      <c r="A19" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-    </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1">
-      <c r="A20" s="40" t="s">
+    <row r="19" spans="1:24" s="44" customFormat="1" ht="90" customHeight="1">
+      <c r="A19" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+    </row>
+    <row r="20" spans="1:24" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+    </row>
+    <row r="21" spans="1:24">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -1726,7 +1855,7 @@
       <c r="O21"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:24">
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
@@ -1740,7 +1869,7 @@
       <c r="O22"/>
       <c r="P22"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:24">
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
@@ -1754,7 +1883,7 @@
       <c r="O23"/>
       <c r="P23"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:24">
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
@@ -1768,7 +1897,7 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:24">
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
@@ -1782,7 +1911,7 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:24">
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
@@ -1796,7 +1925,7 @@
       <c r="O26"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:24">
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
@@ -1808,12 +1937,6 @@
       <c r="M27"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A19:T19"/>
-    <mergeCell ref="A20:T20"/>
-  </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.43307086614173229" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
